--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,26 +3149,26 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Sandecja Nowy S.</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:08</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T30" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
         </is>
       </c>
     </row>
@@ -3241,26 +3241,26 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -3268,31 +3268,31 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:08</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,48 +8784,48 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
+          <t>30/09/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
           <t>30/09/2023 14:41</t>
         </is>
       </c>
-      <c r="N91" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O91" t="inlineStr">
+      <c r="R91" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S91" t="inlineStr">
         <is>
           <t>29/09/2023 02:12</t>
         </is>
       </c>
-      <c r="P91" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>30/09/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:12</t>
-        </is>
-      </c>
       <c r="T91" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,282 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-stomil-olsztyn/GQ3tozuS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:49</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45205.85416666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>05/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:03</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:10</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:10</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stezyca/44PWrm9s/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.38</v>
+        <v>3.22</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.06</v>
+        <v>3.88</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>29/07/2023 16:15</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-polonia-bytom/S8Lsfbah/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-olimpia-elblag/YoMwevpn/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.22</v>
+        <v>3.38</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.39</v>
+        <v>3.46</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.88</v>
+        <v>4.06</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>29/07/2023 16:15</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-olimpia-elblag/YoMwevpn/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-polonia-bytom/S8Lsfbah/</t>
         </is>
       </c>
     </row>
@@ -3149,26 +3149,26 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:08</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T30" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
         </is>
       </c>
     </row>
@@ -3241,26 +3241,26 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Sandecja Nowy S.</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -3268,31 +3268,31 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:08</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>13/08/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.08</v>
+        <v>3.71</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.82</v>
+        <v>3.17</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 15:01</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.23</v>
+        <v>1.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.76</v>
+        <v>3.58</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.18</v>
+        <v>4.66</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.23</v>
+        <v>3.17</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.47</v>
+        <v>3.24</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.06</v>
+        <v>2.76</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.71</v>
+        <v>3.18</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,48 +4184,48 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T41" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.03</v>
+        <v>3.62</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Hutnik Krakow</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.99</v>
+        <v>3.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,282 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stezyca/44PWrm9s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45206.52083333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-sandecja-nowy-s/Gb3v2SFJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,48 +8968,48 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
+          <t>30/09/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
           <t>30/09/2023 14:41</t>
         </is>
       </c>
-      <c r="N93" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O93" t="inlineStr">
+      <c r="R93" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S93" t="inlineStr">
         <is>
           <t>29/09/2023 02:12</t>
         </is>
       </c>
-      <c r="P93" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>30/09/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:12</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,98 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:31</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:31</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:31</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-zaglebie/Sv230FvF/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,190 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-zaglebie/Sv230FvF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45207.67708333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:04</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:06</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:05</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stomil-olsztyn-olimpia-elblag/0jLivPNC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45207.78125</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>07/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:07</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>07/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:07</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>07/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:07</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-polonia-bytom/vsKewqwJ/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>13/08/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>4.66</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.68</v>
+        <v>2.23</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.58</v>
+        <v>2.76</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.66</v>
+        <v>3.18</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>13/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>3.17</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,48 +5012,48 @@
         </is>
       </c>
       <c r="L50" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
         <v>2.77</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:55</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>2.56</v>
-      </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.27</v>
+        <v>3.61</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.5</v>
+        <v>3.99</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.77</v>
+        <v>3.62</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.49</v>
+        <v>3.12</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.14</v>
+        <v>2.35</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,190 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-polonia-bytom/vsKewqwJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45212.75</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>12/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>13/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-kks-kalisz/QXhEeQhm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45212.79166666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/skra-czestochowa-wisla-pulawy/Y3uVirhC/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.22</v>
+        <v>3.38</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.39</v>
+        <v>3.46</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.88</v>
+        <v>4.06</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>29/07/2023 16:15</t>
+          <t>29/07/2023 16:12</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-olimpia-elblag/YoMwevpn/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-polonia-bytom/S8Lsfbah/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.38</v>
+        <v>3.22</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.06</v>
+        <v>3.88</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>29/07/2023 16:12</t>
+          <t>29/07/2023 16:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-polonia-bytom/S8Lsfbah/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-olimpia-elblag/YoMwevpn/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.22</v>
+        <v>3.14</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/07/2023 13:11</t>
+          <t>29/07/2023 05:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>30/07/2023 15:37</t>
+          <t>30/07/2023 16:58</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/07/2023 13:11</t>
+          <t>29/07/2023 05:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.22</v>
+        <v>3.82</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>30/07/2023 15:06</t>
+          <t>30/07/2023 16:57</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.94</v>
+        <v>2.01</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/07/2023 13:11</t>
+          <t>29/07/2023 05:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.02</v>
+        <v>2.58</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>30/07/2023 13:51</t>
+          <t>30/07/2023 16:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-hutnik-krakow/OzFjhxU4/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-kks-kalisz/2RDfidqB/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.14</v>
+        <v>2.22</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>29/07/2023 05:13</t>
+          <t>30/07/2023 13:11</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:58</t>
+          <t>30/07/2023 15:37</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>29/07/2023 05:13</t>
+          <t>30/07/2023 13:11</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.82</v>
+        <v>3.22</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:57</t>
+          <t>30/07/2023 15:06</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.01</v>
+        <v>2.94</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>29/07/2023 05:13</t>
+          <t>30/07/2023 13:11</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.58</v>
+        <v>3.02</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>30/07/2023 16:58</t>
+          <t>30/07/2023 13:51</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-kks-kalisz/2RDfidqB/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-hutnik-krakow/OzFjhxU4/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -3149,26 +3149,26 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Sandecja Nowy S.</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:08</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T30" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
         </is>
       </c>
     </row>
@@ -3241,26 +3241,26 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -3268,31 +3268,31 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:08</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.82</v>
+        <v>3.17</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 15:01</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.23</v>
+        <v>1.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.76</v>
+        <v>3.58</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.18</v>
+        <v>4.66</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T37" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.42</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.09</v>
+        <v>3.5</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.03</v>
+        <v>2.77</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.27</v>
+        <v>3.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.5</v>
+        <v>3.99</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.77</v>
+        <v>3.62</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Hutnik Krakow</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.99</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>3.26</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,98 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/skra-czestochowa-wisla-pulawy/Y3uVirhC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45213.75</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-hutnik-krakow/CUlAd6ws/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,98 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-hutnik-krakow/CUlAd6ws/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45214.58333333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-pogon-siedlce/GSUZj27I/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N56" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>3.26</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T56" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Skra</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2.94</v>
+        <v>3.64</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 13:05</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Skra</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.64</v>
+        <v>2.94</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/10/2023 13:05</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.09</v>
+        <v>3.93</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,98 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/stezyca-pogon-siedlce/GSUZj27I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45215.76041666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>16/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>16/10/2023 17:47</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>15/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>16/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lks-lodz/fDtRhOx6/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -10758,6 +10758,98 @@
       <c r="V112" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lks-lodz/fDtRhOx6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45217.58333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-chojniczanka/fk2r1nVP/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,26 +3149,26 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:08</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T30" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
         </is>
       </c>
     </row>
@@ -3241,26 +3241,26 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Sandecja Nowy S.</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -3268,31 +3268,31 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:08</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>3.26</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,98 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-chojniczanka/fk2r1nVP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45217.79861111111</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>17/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>18/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>17/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>18/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>17/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>18/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-stal-stalowa-wola/nmsNg4Na/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N56" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>3.26</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T56" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.49</v>
+        <v>3.12</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.14</v>
+        <v>2.35</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Skra</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.64</v>
+        <v>2.94</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/10/2023 13:05</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.09</v>
+        <v>3.93</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Skra</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.94</v>
+        <v>3.64</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 13:05</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
         </is>
       </c>
     </row>
@@ -10942,6 +10942,190 @@
       <c r="V114" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-stal-stalowa-wola/nmsNg4Na/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45219.75</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-lech-poznan/GtA851MB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45219.85416666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>19/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:33</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>19/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:33</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>19/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:08</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stezyca/2J3h9qNn/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -3149,26 +3149,26 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Sandecja Nowy S.</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:08</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T30" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
         </is>
       </c>
     </row>
@@ -3241,26 +3241,26 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -3268,31 +3268,31 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:08</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Olimpia Elblag</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.83</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>3.42</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.5</v>
+        <v>4.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.77</v>
+        <v>4.03</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Hutnik Krakow</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.99</v>
+        <v>3.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,48 +5104,48 @@
         </is>
       </c>
       <c r="L51" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
         <v>2.77</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:55</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>2.56</v>
-      </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.03</v>
+        <v>3.62</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.61</v>
+        <v>1.32</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:49</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.18</v>
+        <v>3.61</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.67</v>
+        <v>5.14</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.41</v>
+        <v>8.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:52</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>3</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
       <c r="J100" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.32</v>
+        <v>2.61</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:49</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.18</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>5.14</v>
+        <v>3.67</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>8.6</v>
+        <v>2.41</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:52</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
         </is>
       </c>
     </row>
@@ -11126,6 +11126,282 @@
       <c r="V116" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stezyca/2J3h9qNn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-olimpia-elblag/fX8C4LyI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stomil-olsztyn-kotwica-kolobrzeg/YHK36s75/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-polonia-bytom/O6DG3uiO/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -3149,26 +3149,26 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.11</v>
+        <v>3.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:08</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T30" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
         </is>
       </c>
     </row>
@@ -3241,26 +3241,26 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Sandecja Nowy S.</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -3268,31 +3268,31 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.18</v>
+        <v>3.11</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:08</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-sandecja-nowy-s/APG06SlF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kks-kalisz/Wv5946JR/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Stomil Olsztyn</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.71</v>
+        <v>4.66</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>13/08/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>3.71</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.17</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 15:01</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.42</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.09</v>
+        <v>3.5</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.03</v>
+        <v>2.77</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.08</v>
+        <v>3.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.09</v>
+        <v>3.99</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.56</v>
+        <v>3.62</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>3</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.32</v>
+        <v>2.61</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:49</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.18</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.14</v>
+        <v>3.67</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>8.6</v>
+        <v>2.41</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:52</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.61</v>
+        <v>1.32</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:49</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.18</v>
+        <v>3.61</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.67</v>
+        <v>5.14</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.41</v>
+        <v>8.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:52</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
         </is>
       </c>
     </row>
@@ -11402,6 +11402,374 @@
       <c r="V119" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-polonia-bytom/O6DG3uiO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45221.59375</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:19</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:19</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:19</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-skra-czestochowa/tA2d83xg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-gks-jastrzebie/rZMLE5aP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45221.64583333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:14</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:14</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:14</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-ol-grudziadz/zX107Nia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45222.76041666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:06</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:06</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-zaglebie/pr9mAP7t/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:35</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.05</v>
+        <v>2.57</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.49</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:35</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.57</v>
+        <v>2.49</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,48 +1148,48 @@
         </is>
       </c>
       <c r="L8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>22/07/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22/07/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>22/07/2023 17:36</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>2.64</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>22/07/2023 17:59</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>22/07/2023 14:42</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>22/07/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22/07/2023 14:42</t>
-        </is>
-      </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Olimpia Elblag</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.83</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>3.42</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.5</v>
+        <v>4.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.77</v>
+        <v>4.03</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Hutnik Krakow</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.99</v>
+        <v>3.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,48 +5104,48 @@
         </is>
       </c>
       <c r="L51" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
         <v>2.77</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:55</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>2.56</v>
-      </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.03</v>
+        <v>3.62</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>3.26</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -11770,6 +11770,98 @@
       <c r="V123" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-zaglebie/pr9mAP7t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45225.58333333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>25/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>25/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>25/10/2023 01:21</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-gks-jastrzebie/UVYwjMMO/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.82</v>
+        <v>3.17</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 15:01</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Stomil Olsztyn</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.71</v>
+        <v>4.66</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>13/08/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T36" t="n">
-        <v>3.08</v>
+        <v>3.71</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,48 +8968,48 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
+          <t>30/09/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
           <t>30/09/2023 14:41</t>
         </is>
       </c>
-      <c r="N93" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O93" t="inlineStr">
+      <c r="R93" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S93" t="inlineStr">
         <is>
           <t>29/09/2023 02:12</t>
         </is>
       </c>
-      <c r="P93" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>30/09/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:12</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -11862,6 +11862,834 @@
       <c r="V124" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-gks-jastrzebie/UVYwjMMO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45226.85416666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>26/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>26/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>26/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/skra-czestochowa-stal-stalowa-wola/fmczK0y5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-sandecja-nowy-s/SKwRNrxt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45227.61458333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:35</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:35</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:35</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-kks-kalisz/zosZLM6h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:39</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-chojniczanka/2cCK2a6U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45227.80763888889</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>27/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:18</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>27/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:17</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>27/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:18</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-stomil-olsztyn/EytwLtMb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45228.47916666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-pogon-siedlce/t4anHbLN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>4</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:41</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:41</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:41</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-hutnik-krakow/tOsVM2in/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45228.55902777778</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:18</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-lks-lodz/YwdvJKjB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45228.65625</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>28/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>28/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>28/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-zaglebie/S0erIv6H/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>13/08/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.08</v>
+        <v>3.71</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.82</v>
+        <v>3.17</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 15:01</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Stomil Olsztyn</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
       <c r="J36" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.71</v>
+        <v>4.66</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.09</v>
+        <v>3.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,190 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-zaglebie/S0erIv6H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45233.75</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:24</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:24</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-olimpia-elblag/z5wjEV4q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45233.75</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:25</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:25</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-gks-jastrzebie/QyyJBxqo/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,48 +4920,48 @@
         </is>
       </c>
       <c r="L49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
         <v>2.77</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:55</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>2.56</v>
-      </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.03</v>
+        <v>3.62</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -12874,6 +12874,374 @@
       <c r="V135" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-gks-jastrzebie/QyyJBxqo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45234.5625</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-ol-grudziadz/nsMDXJ54/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45234.5625</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-lech-poznan/KfKLVczH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45234.69791666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:34</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:34</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-pogon-siedlce/OSliGIzU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45234.80208333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:14</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:14</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:14</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stomil-olsztyn-skra-czestochowa/z7I9Yajb/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V139"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,48 +5104,48 @@
         </is>
       </c>
       <c r="L51" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
         <v>2.77</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:55</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>2.56</v>
-      </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.03</v>
+        <v>3.62</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.49</v>
+        <v>3.12</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.14</v>
+        <v>2.35</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -13242,6 +13242,190 @@
       <c r="V139" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/stomil-olsztyn-skra-czestochowa/z7I9Yajb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45235.52083333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:10</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:10</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:10</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-kotwica-kolobrzeg/t4LHWwLA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-stezyca/hrT4Zuyh/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:35</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Chojniczanka</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:35</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Stomil Olsztyn</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.71</v>
+        <v>4.66</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:49</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>3.23</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.47</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.66</v>
+        <v>3.71</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>13/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>3.17</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,48 +4920,48 @@
         </is>
       </c>
       <c r="L49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>26/08/2023 16:30</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>26/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
         <v>2.77</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>26/08/2023 16:55</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>26/08/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>2.56</v>
-      </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.03</v>
+        <v>3.62</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.62</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -13426,6 +13426,98 @@
       <c r="V141" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-stezyca/hrT4Zuyh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45236.76041666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-zaglebie/EiU0zMLo/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V142"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13521,6 +13521,98 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45238.54166666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>08/11/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>08/11/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>08/11/2023 12:50</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-stomil-olsztyn/8drJfp8g/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.57</v>
+        <v>2.49</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,48 +1148,48 @@
         </is>
       </c>
       <c r="L8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>22/07/2023 17:36</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22/07/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>22/07/2023 17:36</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>2.64</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>22/07/2023 17:59</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>22/07/2023 14:42</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>22/07/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22/07/2023 14:42</t>
-        </is>
-      </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:49</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.54</v>
+        <v>3.23</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.82</v>
+        <v>3.47</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.66</v>
+        <v>3.71</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>13/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>3.17</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Stomil Olsztyn</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
       <c r="J36" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.71</v>
+        <v>4.66</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T37" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N56" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>3.26</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T56" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,98 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-stomil-olsztyn/8drJfp8g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>09/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>09/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>09/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-sandecja-nowy-s/MLu2BTl2/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>04/11/2023 13:16</t>
+          <t>04/11/2023 13:23</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>04/11/2023 13:16</t>
+          <t>04/11/2023 13:23</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.97</v>
+        <v>3.66</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.82</v>
+        <v>3.93</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>04/11/2023 13:16</t>
+          <t>04/11/2023 13:23</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-ol-grudziadz/nsMDXJ54/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-lech-poznan/KfKLVczH/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>04/11/2023 13:23</t>
+          <t>04/11/2023 13:16</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>04/11/2023 13:23</t>
+          <t>04/11/2023 13:16</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.66</v>
+        <v>3.97</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.93</v>
+        <v>2.82</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>04/11/2023 13:23</t>
+          <t>04/11/2023 13:16</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-lech-poznan/KfKLVczH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-ol-grudziadz/nsMDXJ54/</t>
         </is>
       </c>
     </row>
@@ -13702,6 +13702,98 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-sandecja-nowy-s/MLu2BTl2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-hutnik-krakow/OQJpzDR2/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Stomil Olsztyn</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.71</v>
+        <v>4.66</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:49</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>3.23</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.47</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.66</v>
+        <v>3.71</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>13/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>3.17</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,48 +4184,48 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T41" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>3.26</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,98 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-hutnik-krakow/OQJpzDR2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45241.67708333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-chojniczanka/EexfDkKk/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V146"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:35</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.05</v>
+        <v>2.57</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:35</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Skra</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2.94</v>
+        <v>3.64</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 13:05</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Skra</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.64</v>
+        <v>2.94</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/10/2023 13:05</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.09</v>
+        <v>3.93</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>04/11/2023 13:23</t>
+          <t>04/11/2023 13:16</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>04/11/2023 13:23</t>
+          <t>04/11/2023 13:16</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.66</v>
+        <v>3.97</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.93</v>
+        <v>2.82</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>04/11/2023 13:23</t>
+          <t>04/11/2023 13:16</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-lech-poznan/KfKLVczH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-ol-grudziadz/nsMDXJ54/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>04/11/2023 13:16</t>
+          <t>04/11/2023 13:23</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>04/11/2023 13:16</t>
+          <t>04/11/2023 13:23</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.97</v>
+        <v>3.66</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.82</v>
+        <v>3.93</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>04/11/2023 13:16</t>
+          <t>04/11/2023 13:23</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-ol-grudziadz/nsMDXJ54/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-lech-poznan/KfKLVczH/</t>
         </is>
       </c>
     </row>
@@ -13886,6 +13886,374 @@
       <c r="V146" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-chojniczanka/EexfDkKk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-lks-lodz/I7L0WUQR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:39</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:39</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:39</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>4</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.89</v>
+        <v>2.3</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.17</v>
+        <v>2.81</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.9</v>
+        <v>2.98</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.35</v>
+        <v>2.17</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>4.08</v>
+        <v>2.21</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.81</v>
+        <v>3.35</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,108 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.59</v>
+        <v>4.08</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45242.83333333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-wisla-pulawy/fTCSRlZr/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Chojniczanka</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:35</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.49</v>
+        <v>2.18</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:35</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.48</v>
+        <v>1.83</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 17:24</t>
+          <t>03/11/2023 17:25</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.99</v>
+        <v>3.48</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.17</v>
+        <v>3.51</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 16:12</t>
+          <t>03/11/2023 17:26</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.65</v>
+        <v>3.7</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 17:24</t>
+          <t>03/11/2023 17:25</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-olimpia-elblag/z5wjEV4q/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-gks-jastrzebie/QyyJBxqo/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.83</v>
+        <v>2.48</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>03/11/2023 17:25</t>
+          <t>03/11/2023 17:24</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.48</v>
+        <v>2.99</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.51</v>
+        <v>3.17</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>03/11/2023 17:26</t>
+          <t>03/11/2023 16:12</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>03/11/2023 17:25</t>
+          <t>03/11/2023 17:24</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-gks-jastrzebie/QyyJBxqo/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-olimpia-elblag/z5wjEV4q/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.3</v>
+        <v>2.89</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.81</v>
+        <v>2.17</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.59</v>
+        <v>2.21</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.98</v>
+        <v>1.9</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.17</v>
+        <v>3.35</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.21</v>
+        <v>4.08</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.35</v>
+        <v>2.81</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>4.08</v>
+        <v>2.59</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
         </is>
       </c>
     </row>
@@ -14346,6 +14346,98 @@
       <c r="V151" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-wisla-pulawy/fTCSRlZr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45243.76041666666</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>4</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:14</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/skra-czestochowa-kks-kalisz/2HIlZWt9/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V152"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:49</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.54</v>
+        <v>3.23</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.82</v>
+        <v>3.47</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.66</v>
+        <v>3.71</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>13/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>3.17</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Stomil Olsztyn</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
       <c r="J36" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.47</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.71</v>
+        <v>4.66</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T37" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N56" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>3.26</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T56" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,48 +8784,48 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
+          <t>30/09/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
           <t>30/09/2023 14:41</t>
         </is>
       </c>
-      <c r="N91" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O91" t="inlineStr">
+      <c r="R91" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S91" t="inlineStr">
         <is>
           <t>29/09/2023 02:12</t>
         </is>
       </c>
-      <c r="P91" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>30/09/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:12</t>
-        </is>
-      </c>
       <c r="T91" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.49</v>
+        <v>3.12</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.14</v>
+        <v>2.35</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Skra</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.64</v>
+        <v>2.94</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/10/2023 13:05</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.09</v>
+        <v>3.93</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 14:50</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Skra</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.94</v>
+        <v>3.64</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 13:05</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/10/2023 14:50</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-skra-czestochowa/YwUzr7Om/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-ol-grudziadz/CUSvsRwf/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.83</v>
+        <v>2.48</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 17:25</t>
+          <t>03/11/2023 17:24</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.48</v>
+        <v>2.99</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.51</v>
+        <v>3.17</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 17:26</t>
+          <t>03/11/2023 16:12</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 17:25</t>
+          <t>03/11/2023 17:24</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-gks-jastrzebie/QyyJBxqo/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-olimpia-elblag/z5wjEV4q/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.48</v>
+        <v>1.83</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>03/11/2023 17:24</t>
+          <t>03/11/2023 17:25</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2.99</v>
+        <v>3.48</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.17</v>
+        <v>3.51</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>03/11/2023 16:12</t>
+          <t>03/11/2023 17:26</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.65</v>
+        <v>3.7</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>03/11/2023 17:24</t>
+          <t>03/11/2023 17:25</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-olimpia-elblag/z5wjEV4q/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-gks-jastrzebie/QyyJBxqo/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,14 +14013,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.98</v>
+        <v>1.9</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.17</v>
+        <v>3.35</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.21</v>
+        <v>4.08</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.35</v>
+        <v>2.81</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>4.08</v>
+        <v>2.59</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.3</v>
+        <v>2.89</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.81</v>
+        <v>2.17</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.59</v>
+        <v>2.21</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
         </is>
       </c>
     </row>
@@ -14438,6 +14438,558 @@
       <c r="V152" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/skra-czestochowa-kks-kalisz/2HIlZWt9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stomil-olsztyn/tpyAvSIl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:11</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:11</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:11</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-ol-grudziadz/WAozoUuL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45248.625</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-kotwica-kolobrzeg/A1pvpleR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45248.72916666666</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>3</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>17/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>17/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>17/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-gks-jastrzebie/lndVoAQE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45248.83333333334</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>17/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>17/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>17/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>17/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>18/11/2023 09:53</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-wisla-pulawy/2gx6u83r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45249.5</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>4</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>18/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:53</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>18/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>18/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:53</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-kks-kalisz/O8QEwnYf/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V158"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.31</v>
+        <v>3.14</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stomil-olsztyn/tpyAvSIl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-ol-grudziadz/WAozoUuL/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
       <c r="J154" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-ol-grudziadz/WAozoUuL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stomil-olsztyn/tpyAvSIl/</t>
         </is>
       </c>
     </row>
@@ -14990,6 +14990,98 @@
       <c r="V158" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/stezyca-kks-kalisz/O8QEwnYf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45250.66666666666</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>19/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>19/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>19/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>20/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-pogon-siedlce/xChRnjB8/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.49</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:35</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Chojniczanka</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:35</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,48 +4184,48 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T41" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.61</v>
+        <v>1.32</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:49</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.18</v>
+        <v>3.61</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.67</v>
+        <v>5.14</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.41</v>
+        <v>8.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:52</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>3</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
       <c r="J100" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.32</v>
+        <v>2.61</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:49</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.18</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>5.14</v>
+        <v>3.67</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>8.6</v>
+        <v>2.41</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:52</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>1</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
       <c r="J153" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-ol-grudziadz/WAozoUuL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stomil-olsztyn/tpyAvSIl/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.31</v>
+        <v>3.14</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stomil-olsztyn/tpyAvSIl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-ol-grudziadz/WAozoUuL/</t>
         </is>
       </c>
     </row>
@@ -15082,6 +15082,98 @@
       <c r="V159" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-pogon-siedlce/xChRnjB8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45254.82291666666</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>23/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>23/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>23/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-kotwica-kolobrzeg/CpLaqxMD/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:35</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Chojniczanka</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:35</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.09</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.49</v>
+        <v>3.12</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.14</v>
+        <v>2.35</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,48 +8968,48 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
+          <t>30/09/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
           <t>30/09/2023 14:41</t>
         </is>
       </c>
-      <c r="N93" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O93" t="inlineStr">
+      <c r="R93" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S93" t="inlineStr">
         <is>
           <t>29/09/2023 02:12</t>
         </is>
       </c>
-      <c r="P93" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>30/09/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:12</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>3</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Lech Poznan II</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.32</v>
+        <v>2.61</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:49</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.18</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.14</v>
+        <v>3.67</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:55</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>8.6</v>
+        <v>2.41</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>06/10/2023 17:57</t>
+          <t>06/10/2023 17:52</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.61</v>
+        <v>1.32</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:49</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.18</v>
+        <v>3.61</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.67</v>
+        <v>5.14</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:55</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.41</v>
+        <v>8.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/10/2023 17:52</t>
+          <t>06/10/2023 17:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-kotwica-kolobrzeg/fgIqtog0/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-lech-poznan/6TLmu586/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.35</v>
+        <v>2.81</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>4.08</v>
+        <v>2.59</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.81</v>
+        <v>3.35</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.59</v>
+        <v>4.08</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.31</v>
+        <v>3.14</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.48</v>
+        <v>3.07</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>18/11/2023 12:51</t>
+          <t>18/11/2023 11:11</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stomil-olsztyn/tpyAvSIl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-ol-grudziadz/WAozoUuL/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
       <c r="J154" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>18/11/2023 11:11</t>
+          <t>18/11/2023 12:51</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-ol-grudziadz/WAozoUuL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stomil-olsztyn/tpyAvSIl/</t>
         </is>
       </c>
     </row>
@@ -15174,6 +15174,650 @@
       <c r="V160" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-kotwica-kolobrzeg/CpLaqxMD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>24/11/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>24/11/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>24/11/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-chojniczanka/APSQzpID/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45255.52083333334</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>3</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>24/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:11</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>24/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:11</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>24/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:11</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-stezyca/MJAZxzas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-skra-czestochowa/pbJ7sGjQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stomil-olsztyn-gks-jastrzebie/rZbryETg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>3</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>24/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>24/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>24/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-zaglebie/4r0vxfEm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45255.70833333334</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>24/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>24/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>24/11/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-ol-grudziadz/jyK3rdyK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45256.72916666666</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:26</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-wisla-pulawy/ja2jZib6/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V167"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.17</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 15:01</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.23</v>
+        <v>1.68</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.76</v>
+        <v>3.58</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.18</v>
+        <v>4.66</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,48 +4184,48 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T41" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>3.61</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.5</v>
+        <v>3.99</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.77</v>
+        <v>3.62</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Hutnik Krakow</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.99</v>
+        <v>3.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.42</v>
+        <v>3.27</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.5</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.03</v>
+        <v>2.77</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>3.26</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.9</v>
+        <v>2.98</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.35</v>
+        <v>2.17</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>4.08</v>
+        <v>2.21</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.98</v>
+        <v>1.9</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.17</v>
+        <v>3.35</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.21</v>
+        <v>4.08</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
         </is>
       </c>
     </row>
@@ -15818,6 +15818,98 @@
       <c r="V167" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-wisla-pulawy/ja2jZib6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45257.67708333334</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>27/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>27/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>26/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>27/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-pogon-siedlce/C83nzYr0/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15913,6 +15913,98 @@
         </is>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45259.70833333334</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>29/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>29/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>29/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/skra-czestochowa-hutnik-krakow/xCUIx6m1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>13/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>3.17</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>13/08/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>13/08/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T36" t="n">
-        <v>3.08</v>
+        <v>4.66</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.68</v>
+        <v>2.23</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.58</v>
+        <v>2.76</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.66</v>
+        <v>3.18</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.61</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.99</v>
+        <v>3.5</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.62</v>
+        <v>2.77</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.08</v>
+        <v>3.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.09</v>
+        <v>3.99</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.56</v>
+        <v>3.62</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N56" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>3.26</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T56" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Stomil Olsztyn</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.98</v>
+        <v>1.9</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.55</v>
+        <v>3.33</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.17</v>
+        <v>3.35</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.21</v>
+        <v>4.08</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:51</t>
+          <t>12/11/2023 12:39</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.9</v>
+        <v>2.98</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.35</v>
+        <v>2.17</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>4.08</v>
+        <v>2.21</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 12:39</t>
+          <t>12/11/2023 12:51</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-stomil-olsztyn/dhXiYjdF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
         </is>
       </c>
     </row>
@@ -16002,6 +16002,190 @@
       <c r="V169" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/skra-czestochowa-hutnik-krakow/xCUIx6m1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:36</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:36</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-hutnik-krakow/4duDjgTt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45262.60416666666</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>3</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>01/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:31</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-lks-lodz/YNieYBDC/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,48 +4184,48 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T41" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.09</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>KKS Kalisz</t>
+          <t>LKS Lodz II</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>30/09/2023 14:41</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LKS Lodz II</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:59</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:43</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-lks-lodz/CdkCuE2k/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Chojniczanka</t>
+          <t>KKS Kalisz</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.49</v>
+        <v>3.12</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.14</v>
+        <v>2.35</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>30/09/2023 14:43</t>
+          <t>30/09/2023 14:41</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-chojniczanka/t8BTmxe9/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-kks-kalisz/KbAXndAF/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.3</v>
+        <v>2.89</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.81</v>
+        <v>2.17</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.59</v>
+        <v>2.21</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.89</v>
+        <v>2.3</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.17</v>
+        <v>2.81</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/lech-poznan-polonia-bytom/8IybC9Ze/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-stal-stalowa-wola/zqWeXABL/</t>
         </is>
       </c>
     </row>
@@ -16186,6 +16186,98 @@
       <c r="V171" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-lks-lodz/YNieYBDC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45263.72916666666</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:19</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:19</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>02/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:19</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-lech-poznan/YyXTnBS5/</t>
         </is>
       </c>
     </row>
